--- a/doc/Dictionaries/B_schema_data_dictionary.xlsx
+++ b/doc/Dictionaries/B_schema_data_dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zalma\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zalma\videogame-data-analysis\doc\Dictionaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B072BC34-B5B6-4480-A99E-E748FAF2239F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07001F21-5380-49E8-B451-68F233D2B057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="16" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="game" sheetId="1" r:id="rId1"/>
@@ -18,27 +18,44 @@
     <sheet name="media" sheetId="5" r:id="rId3"/>
     <sheet name="screenshots" sheetId="6" r:id="rId4"/>
     <sheet name="movies" sheetId="7" r:id="rId5"/>
-    <sheet name="categories" sheetId="8" r:id="rId6"/>
-    <sheet name="game_category" sheetId="9" r:id="rId7"/>
+    <sheet name="tags" sheetId="12" r:id="rId6"/>
+    <sheet name="game_tag" sheetId="13" r:id="rId7"/>
     <sheet name="genres" sheetId="10" r:id="rId8"/>
     <sheet name="game_genre" sheetId="11" r:id="rId9"/>
-    <sheet name="tags" sheetId="12" r:id="rId10"/>
-    <sheet name="game_tag" sheetId="13" r:id="rId11"/>
-    <sheet name="languages" sheetId="14" r:id="rId12"/>
-    <sheet name="game_language" sheetId="15" r:id="rId13"/>
-    <sheet name="developers" sheetId="16" r:id="rId14"/>
-    <sheet name="game_developer" sheetId="17" r:id="rId15"/>
-    <sheet name="publishers" sheetId="18" r:id="rId16"/>
-    <sheet name="game_publisher" sheetId="19" r:id="rId17"/>
-    <sheet name="platforms" sheetId="20" r:id="rId18"/>
-    <sheet name="game_platform" sheetId="21" r:id="rId19"/>
+    <sheet name="platforms" sheetId="20" r:id="rId10"/>
+    <sheet name="game_platform" sheetId="21" r:id="rId11"/>
+    <sheet name="categories" sheetId="8" r:id="rId12"/>
+    <sheet name="game_category" sheetId="9" r:id="rId13"/>
+    <sheet name="publishers" sheetId="18" r:id="rId14"/>
+    <sheet name="game_publisher" sheetId="19" r:id="rId15"/>
+    <sheet name="developers" sheetId="16" r:id="rId16"/>
+    <sheet name="game_developer" sheetId="17" r:id="rId17"/>
+    <sheet name="languages" sheetId="14" r:id="rId18"/>
+    <sheet name="game_audio_language" sheetId="15" r:id="rId19"/>
+    <sheet name="game_subtitles" sheetId="22" r:id="rId20"/>
+    <sheet name="packages" sheetId="23" r:id="rId21"/>
+    <sheet name="sub_package" sheetId="24" r:id="rId22"/>
+    <sheet name="game_package" sheetId="25" r:id="rId23"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="89">
   <si>
     <t>Oszlop</t>
   </si>
@@ -103,18 +120,12 @@
     <t>pénznem</t>
   </si>
   <si>
-    <t>discount_DLC_count</t>
-  </si>
-  <si>
     <t>about_the_game</t>
   </si>
   <si>
     <t>max 5000 karakter</t>
   </si>
   <si>
-    <t>recommendations</t>
-  </si>
-  <si>
     <t>notes</t>
   </si>
   <si>
@@ -133,9 +144,6 @@
     <t>^https?://.*</t>
   </si>
   <si>
-    <t>achievements</t>
-  </si>
-  <si>
     <t>user_score</t>
   </si>
   <si>
@@ -166,12 +174,6 @@
     <t>peak_ccu</t>
   </si>
   <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>{0,1}</t>
-  </si>
-  <si>
     <t>supportid</t>
   </si>
   <si>
@@ -211,57 +213,33 @@
     <t>catid</t>
   </si>
   <si>
-    <t>FK categories.catid</t>
-  </si>
-  <si>
     <t>genreid</t>
   </si>
   <si>
     <t>genre_name</t>
   </si>
   <si>
-    <t>FK genres.genreid</t>
-  </si>
-  <si>
     <t>tagid</t>
   </si>
   <si>
     <t>tag_name</t>
   </si>
   <si>
-    <t>FK tags.tagid</t>
-  </si>
-  <si>
     <t>weight</t>
   </si>
   <si>
     <t>langid</t>
   </si>
   <si>
-    <t>lang_name</t>
-  </si>
-  <si>
     <t>max 100 karakter</t>
   </si>
   <si>
-    <t>FK languages.langid</t>
-  </si>
-  <si>
-    <t>audio</t>
-  </si>
-  <si>
     <t>devid</t>
   </si>
   <si>
-    <t>FK developers.devid</t>
-  </si>
-  <si>
     <t>pubid</t>
   </si>
   <si>
-    <t>FK publishers.pubid</t>
-  </si>
-  <si>
     <t>1997-06-30 – 2025-05-30</t>
   </si>
   <si>
@@ -280,7 +258,70 @@
     <t>platid</t>
   </si>
   <si>
-    <t>FK platforms.platid</t>
+    <t>email cím</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>max 100</t>
+  </si>
+  <si>
+    <t>^[A-Za-z0-9\s\-\+]+$</t>
+  </si>
+  <si>
+    <t>≥ 0</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>{Windows, Mac, Linux}</t>
+  </si>
+  <si>
+    <t>enumeráció</t>
+  </si>
+  <si>
+    <t>platformid</t>
+  </si>
+  <si>
+    <t>categoryid</t>
+  </si>
+  <si>
+    <t>max 200</t>
+  </si>
+  <si>
+    <t>publisherid</t>
+  </si>
+  <si>
+    <t>developerid</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>packid</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>sub_text</t>
+  </si>
+  <si>
+    <t>DLC_count</t>
+  </si>
+  <si>
+    <t>num_recommendations</t>
+  </si>
+  <si>
+    <t>num_achievements</t>
+  </si>
+  <si>
+    <t>discount</t>
   </si>
 </sst>
 </file>
@@ -708,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,21 +813,21 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -819,7 +860,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -830,32 +871,38 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -863,7 +910,7 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
@@ -871,27 +918,27 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -899,18 +946,15 @@
         <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -921,7 +965,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -932,7 +976,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
@@ -943,13 +987,16 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19" t="s">
         <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -962,6 +1009,9 @@
       <c r="C20" t="s">
         <v>19</v>
       </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -974,12 +1024,12 @@
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
@@ -988,12 +1038,12 @@
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -1001,13 +1051,10 @@
       <c r="C23" t="s">
         <v>19</v>
       </c>
-      <c r="D23" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
@@ -1015,19 +1062,24 @@
       <c r="C24" t="s">
         <v>19</v>
       </c>
-      <c r="D24" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1036,16 +1088,133 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF7F94F-B64B-4A41-B077-664CBCA39D74}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366B8044-AA3D-425C-A455-73E09FC9C740}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
@@ -1067,7 +1236,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1081,13 +1250,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>69</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1095,17 +1267,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:D4"/>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
@@ -1133,29 +1305,18 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1163,12 +1324,252 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A2" sqref="A2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1195,7 +1596,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1209,13 +1610,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1223,193 +1624,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1440,27 +1656,24 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1468,12 +1681,100 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB54DBD-491C-4D34-BBAC-A4F32AF9F59B}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D3"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1506,31 +1807,171 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>72</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC3A67B-B3D7-4455-80EC-D7288C694128}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF7F94F-B64B-4A41-B077-664CBCA39D74}">
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A6F1FE-2CB6-4832-9CC2-14D45518D419}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB35DDD-C45E-42F1-B2A5-8E2645A49DB2}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1555,174 +1996,28 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366B8044-AA3D-425C-A455-73E09FC9C740}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1731,7 +2026,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1758,7 +2053,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1778,21 +2073,21 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1805,7 +2100,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1832,7 +2127,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1852,21 +2147,21 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1879,7 +2174,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1906,7 +2201,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1926,21 +2221,21 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1949,16 +2244,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A2" sqref="A2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
@@ -1980,7 +2275,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1994,13 +2289,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>69</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2009,16 +2318,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A2" sqref="A2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
@@ -2046,18 +2355,18 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2070,7 +2379,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A2" sqref="A2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2097,7 +2406,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -2111,13 +2420,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>69</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2130,7 +2442,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A2" sqref="A2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2163,18 +2475,18 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
